--- a/src/assets/files/genericTempProductCatalog.xlsx
+++ b/src/assets/files/genericTempProductCatalog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OptiSam\optisam-ui\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ystz3843\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D393F4-999D-4D5F-9E19-B73FED1E851F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB44366-6C88-4E58-8BE5-AD87C4569079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{47A0D9CE-6847-499D-9531-B8A277352A0F}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" xr2:uid="{47A0D9CE-6847-499D-9531-B8A277352A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -159,14 +159,14 @@
 Format: free text case insenstive;e.g.:prodName</t>
   </si>
   <si>
+    <t>WISHED
+Format : Closed source, Open source,Open source and Closed source;e.g.:OpenSource</t>
+  </si>
+  <si>
+    <t>Wished Values: AUTHOURIZED,BLACKLISTED,RECOMMENDED,NONE</t>
+  </si>
+  <si>
     <t>Recommendation</t>
-  </si>
-  <si>
-    <t>Wished Values: AUTHORIZED,BLACKLISTED,RECOMMENDED,NONE</t>
-  </si>
-  <si>
-    <t>WISHED
-Format : Closed source, Open sourcee.g.:OpenSource</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,10 +623,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="84" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
